--- a/data/trans_bre/P24_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>176,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>57,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>62,13%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>68,91%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 9,69</t>
+          <t>-3,56; 7,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 9,19</t>
+          <t>-7,66; 7,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 6,76</t>
+          <t>-4,16; 6,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 9,81</t>
+          <t>1,12; 10,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 8,79</t>
+          <t>-4,17; 19,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,24; 472,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 210,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 105,9</t>
+          <t>-62,75; 614,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 157,9</t>
+          <t>-53,86; 117,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 92,88</t>
+          <t>-32,87; 107,35</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,89; 165,49</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-17,51; 150,45</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>74,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>74,77%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,19%</t>
+          <t>-3,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>129,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>57,86%</t>
+          <t>46,64%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32,03%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46,96%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,91</t>
+          <t>-3,81; 3,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 6,26</t>
+          <t>1,49; 9,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 5,16</t>
+          <t>-0,48; 5,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,7</t>
+          <t>-0,97; 5,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 6,19</t>
+          <t>-0,59; 7,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 195,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 202,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 119,98</t>
+          <t>-59,17; 130,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 110,85</t>
+          <t>15,25; 416,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 166,31</t>
+          <t>-6,99; 146,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,97; 142,35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-8,08; 143,08</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-43,97%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>-26,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-36,13%</t>
+          <t>-60,8%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>51,4%</t>
+          <t>-8,18%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-39,38%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35,62%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 2,36</t>
+          <t>-3,27; 1,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 0,57</t>
+          <t>-11,04; -0,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,78</t>
+          <t>-3,34; 2,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,85</t>
+          <t>-4,83; 0,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 6,13</t>
+          <t>-1,97; 6,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-72,44; 161,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-79,4; 27,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,53; 99,76</t>
+          <t>-90,85; 416,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-68,14; 23,23</t>
+          <t>-90,14; 2,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 286,8</t>
+          <t>-51,73; 67,58</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-68,95; 9,82</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-32,34; 210,03</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>130,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>75,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>42,17%</t>
+          <t>74,98%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,23</t>
+          <t>2,09; 6,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,87</t>
+          <t>0,41; 6,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,67</t>
+          <t>-0,37; 7,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,69</t>
+          <t>-3,88; 5,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 149,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 101,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 75,58</t>
+          <t>32,29; 279,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 70,66</t>
+          <t>5,67; 219,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 93,72</t>
+          <t>-9,2; 215,45</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-34,77; 80,91</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76,63%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34,46%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32,72%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28,39%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35,9%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 4,12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 3,92</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 3,56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 3,65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 6,38</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12,4; 153,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,47; 92,4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 72,61</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 76,78</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 82,41</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
